--- a/template/packinglisttem8.xlsx
+++ b/template/packinglisttem8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924F6CEF-1A94-5B4C-BC25-68473E756F4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99B8E02-1106-42C7-AFE0-3703C9E385FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2060" windowWidth="27840" windowHeight="16940" xr2:uid="{B7C238CB-CAE8-D243-9FA6-ADE4AC43C98C}"/>
+    <workbookView xWindow="3345" yWindow="1155" windowWidth="25425" windowHeight="14040" xr2:uid="{B7C238CB-CAE8-D243-9FA6-ADE4AC43C98C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
-  <si>
-    <t>IRONDALE FASHION INTERNATIONAL LIMITED</t>
-  </si>
-  <si>
-    <t>UNIT 11 BLK B 10/F, HOI LUEN IND CTR,</t>
-  </si>
-  <si>
-    <t>55 HOI YUEN RD, KWUN TONG,HK</t>
-  </si>
-  <si>
-    <t>TEL: 23275217   FAX: 23500954</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>P A C K I N G   L I S T</t>
   </si>
@@ -546,26 +534,26 @@
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,105 +992,97 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A1:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="23">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+    <row r="1" spans="1:15" ht="23.25">
+      <c r="A1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
+      <c r="A5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
@@ -1121,7 +1101,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="22">
+    <row r="7" spans="1:15" ht="19.5">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1135,14 +1115,14 @@
       <c r="K7" s="5"/>
       <c r="L7" s="4"/>
       <c r="M7" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1210,7 +1190,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="22">
+    <row r="12" spans="1:15" ht="19.5">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1275,7 +1255,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1294,7 +1274,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1313,19 +1293,19 @@
       <c r="K17" s="5"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="5"/>
@@ -1336,7 +1316,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1361,7 +1341,7 @@
     <row r="20" spans="1:15">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1371,32 +1351,32 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="30"/>
+      <c r="K20" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="31"/>
       <c r="M20" s="11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -1404,20 +1384,20 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
       <c r="M21" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" ht="20">
+    <row r="22" spans="1:15" ht="21">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="35"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="15"/>
@@ -1431,10 +1411,10 @@
       <c r="N22" s="17"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" ht="20">
+    <row r="23" spans="1:15" ht="21">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="35"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="15"/>
@@ -1448,10 +1428,10 @@
       <c r="N23" s="17"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" ht="20">
+    <row r="24" spans="1:15" ht="21">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="35"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="15"/>
@@ -1465,10 +1445,10 @@
       <c r="N24" s="17"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15" ht="20">
+    <row r="25" spans="1:15" ht="21">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="35"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="15"/>
@@ -1482,10 +1462,10 @@
       <c r="N25" s="17"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15" ht="20">
+    <row r="26" spans="1:15" ht="21">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="35"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="15"/>
@@ -1499,10 +1479,10 @@
       <c r="N26" s="17"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15" ht="20">
+    <row r="27" spans="1:15" ht="21">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="35"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="15"/>
@@ -1516,10 +1496,10 @@
       <c r="N27" s="17"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15" ht="20">
+    <row r="28" spans="1:15" ht="21">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="35"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="15"/>
@@ -1533,7 +1513,7 @@
       <c r="N28" s="17"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="16.5">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="18"/>
@@ -1550,7 +1530,7 @@
       <c r="N29" s="17"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" ht="17" thickBot="1">
+    <row r="30" spans="1:15" ht="16.5" thickBot="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1576,7 +1556,7 @@
       </c>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="17" thickTop="1">
+    <row r="31" spans="1:15" ht="16.5" thickTop="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1595,14 +1575,14 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B32" s="4">
         <f>+SUM(B22:B28)</f>
         <v>0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1687,7 +1667,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -1717,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -1765,7 +1745,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" ht="17" thickBot="1">
+    <row r="39" spans="1:15" ht="16.5" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1785,7 +1765,7 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" ht="17" thickTop="1">
+    <row r="40" spans="1:15" ht="16.5" thickTop="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1802,7 +1782,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" ht="16.5">
       <c r="A41" s="4"/>
       <c r="B41" s="18"/>
       <c r="C41" s="4"/>
@@ -1819,7 +1799,7 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="16.5">
       <c r="A42" s="4"/>
       <c r="B42" s="18"/>
       <c r="C42" s="4"/>
@@ -1838,17 +1818,17 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C43" s="28">
         <f>M30</f>
         <v>0</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
@@ -1865,14 +1845,14 @@
     <row r="44" spans="1:15">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C44" s="28">
         <f>N30</f>
         <v>0</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
@@ -1897,6 +1877,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>